--- a/server/templates/excel/CT-MV.xlsx
+++ b/server/templates/excel/CT-MV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PJs\ChecksheetsApp\server\templates\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7B667A-0055-4785-96D4-A1457C3D7C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFF3719-727D-4067-845C-6B1E449D68F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -244,6 +244,12 @@
   </si>
   <si>
     <t>{observations}</t>
+  </si>
+  <si>
+    <t>{checklist_made_by}</t>
+  </si>
+  <si>
+    <t>{last_revision_approved_by}</t>
   </si>
 </sst>
 </file>
@@ -1017,6 +1023,66 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1067,66 +1133,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1477,7 +1483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y144"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="40" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="40" workbookViewId="0">
       <selection activeCell="F6" sqref="F6:L6"/>
     </sheetView>
   </sheetViews>
@@ -1503,15 +1509,15 @@
       <c r="C1" s="69"/>
       <c r="D1" s="69"/>
       <c r="E1" s="67"/>
-      <c r="F1" s="95" t="s">
+      <c r="F1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="97"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="117"/>
     </row>
     <row r="2" spans="1:14" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
@@ -1534,22 +1540,22 @@
       <c r="L2" s="41"/>
     </row>
     <row r="3" spans="1:14" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="98" t="s">
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="100"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="120"/>
     </row>
     <row r="4" spans="1:14" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37"/>
@@ -1572,24 +1578,24 @@
       <c r="L4" s="41"/>
     </row>
     <row r="5" spans="1:14" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="103" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="103" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="104"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="101" t="s">
+      <c r="A5" s="123" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="124"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="123" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="124"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="121" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="101"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="102"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="122"/>
     </row>
     <row r="6" spans="1:14" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="64"/>
@@ -1603,15 +1609,15 @@
       <c r="E6" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="109" t="s">
+      <c r="F6" s="129" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="110"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="130"/>
     </row>
     <row r="7" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44"/>
@@ -1641,11 +1647,11 @@
     </row>
     <row r="8" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="46"/>
-      <c r="B8" s="94" t="s">
+      <c r="B8" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
       <c r="E8" s="16"/>
       <c r="F8" s="73" t="s">
         <v>6</v>
@@ -1694,38 +1700,38 @@
     </row>
     <row r="11" spans="1:14" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="124" t="s">
+      <c r="C11" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="125"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="126"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="98"/>
       <c r="J11" s="87"/>
-      <c r="K11" s="128" t="s">
+      <c r="K11" s="100" t="s">
         <v>14</v>
       </c>
       <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="123"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="126"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="98"/>
       <c r="J12" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="K12" s="129"/>
+      <c r="K12" s="101"/>
       <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1887,15 +1893,15 @@
       <c r="B21" s="91">
         <v>3.1</v>
       </c>
-      <c r="C21" s="112" t="s">
+      <c r="C21" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="114"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="107"/>
       <c r="J21" s="25"/>
       <c r="K21" s="92" t="s">
         <v>65</v>
@@ -1907,15 +1913,15 @@
       <c r="B22" s="91">
         <v>3.2</v>
       </c>
-      <c r="C22" s="112" t="s">
+      <c r="C22" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="114"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="107"/>
       <c r="J22" s="25"/>
       <c r="K22" s="92" t="s">
         <v>65</v>
@@ -1965,15 +1971,15 @@
       <c r="B25" s="91">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C25" s="112" t="s">
+      <c r="C25" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="113"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="113"/>
-      <c r="H25" s="113"/>
-      <c r="I25" s="114"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="107"/>
       <c r="J25" s="25"/>
       <c r="K25" s="92" t="s">
         <v>65</v>
@@ -1985,15 +1991,15 @@
       <c r="B26" s="91">
         <v>4.2</v>
       </c>
-      <c r="C26" s="112" t="s">
+      <c r="C26" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="113"/>
-      <c r="I26" s="114"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="107"/>
       <c r="J26" s="25"/>
       <c r="K26" s="92" t="s">
         <v>65</v>
@@ -2045,15 +2051,15 @@
       <c r="B29" s="91">
         <v>4.5</v>
       </c>
-      <c r="C29" s="130" t="s">
+      <c r="C29" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="119"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="120"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="104"/>
       <c r="J29" s="25"/>
       <c r="K29" s="92" t="s">
         <v>65</v>
@@ -2163,15 +2169,15 @@
       <c r="B35" s="91">
         <v>5.5</v>
       </c>
-      <c r="C35" s="118" t="s">
+      <c r="C35" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="119"/>
-      <c r="E35" s="119"/>
-      <c r="F35" s="119"/>
-      <c r="G35" s="119"/>
-      <c r="H35" s="119"/>
-      <c r="I35" s="120"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="104"/>
       <c r="J35" s="25"/>
       <c r="K35" s="92" t="s">
         <v>65</v>
@@ -2183,15 +2189,15 @@
       <c r="B36" s="91">
         <v>5.6</v>
       </c>
-      <c r="C36" s="118" t="s">
+      <c r="C36" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="119"/>
-      <c r="E36" s="119"/>
-      <c r="F36" s="119"/>
-      <c r="G36" s="119"/>
-      <c r="H36" s="119"/>
-      <c r="I36" s="120"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="104"/>
       <c r="J36" s="25"/>
       <c r="K36" s="92" t="s">
         <v>65</v>
@@ -2203,15 +2209,15 @@
       <c r="B37" s="91">
         <v>5.7</v>
       </c>
-      <c r="C37" s="118" t="s">
+      <c r="C37" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="119"/>
-      <c r="E37" s="119"/>
-      <c r="F37" s="119"/>
-      <c r="G37" s="119"/>
-      <c r="H37" s="119"/>
-      <c r="I37" s="120"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="103"/>
+      <c r="H37" s="103"/>
+      <c r="I37" s="104"/>
       <c r="J37" s="25"/>
       <c r="K37" s="92" t="s">
         <v>65</v>
@@ -2223,15 +2229,15 @@
       <c r="B38" s="91">
         <v>5.8</v>
       </c>
-      <c r="C38" s="118" t="s">
+      <c r="C38" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="119"/>
-      <c r="E38" s="119"/>
-      <c r="F38" s="119"/>
-      <c r="G38" s="119"/>
-      <c r="H38" s="119"/>
-      <c r="I38" s="120"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="103"/>
+      <c r="G38" s="103"/>
+      <c r="H38" s="103"/>
+      <c r="I38" s="104"/>
       <c r="J38" s="25"/>
       <c r="K38" s="92" t="s">
         <v>65</v>
@@ -2243,15 +2249,15 @@
       <c r="B39" s="91">
         <v>5.9</v>
       </c>
-      <c r="C39" s="118" t="s">
+      <c r="C39" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="119"/>
-      <c r="E39" s="119"/>
-      <c r="F39" s="119"/>
-      <c r="G39" s="119"/>
-      <c r="H39" s="119"/>
-      <c r="I39" s="120"/>
+      <c r="D39" s="103"/>
+      <c r="E39" s="103"/>
+      <c r="F39" s="103"/>
+      <c r="G39" s="103"/>
+      <c r="H39" s="103"/>
+      <c r="I39" s="104"/>
       <c r="J39" s="25"/>
       <c r="K39" s="92" t="s">
         <v>65</v>
@@ -2263,15 +2269,15 @@
       <c r="B40" s="93">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C40" s="115" t="s">
+      <c r="C40" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="116"/>
-      <c r="E40" s="116"/>
-      <c r="F40" s="116"/>
-      <c r="G40" s="116"/>
-      <c r="H40" s="116"/>
-      <c r="I40" s="117"/>
+      <c r="D40" s="110"/>
+      <c r="E40" s="110"/>
+      <c r="F40" s="110"/>
+      <c r="G40" s="110"/>
+      <c r="H40" s="110"/>
+      <c r="I40" s="111"/>
       <c r="J40" s="25"/>
       <c r="K40" s="92" t="s">
         <v>65</v>
@@ -2359,13 +2365,13 @@
     </row>
     <row r="47" spans="1:12" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
-      <c r="B47" s="121" t="s">
+      <c r="B47" s="113" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="121"/>
-      <c r="D47" s="121"/>
-      <c r="E47" s="121"/>
-      <c r="F47" s="121"/>
+      <c r="C47" s="113"/>
+      <c r="D47" s="113"/>
+      <c r="E47" s="113"/>
+      <c r="F47" s="113"/>
       <c r="G47" s="9"/>
       <c r="H47" s="26"/>
       <c r="I47" s="26"/>
@@ -2377,13 +2383,13 @@
     </row>
     <row r="48" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
-      <c r="B48" s="111" t="s">
+      <c r="B48" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="111"/>
-      <c r="D48" s="111"/>
-      <c r="E48" s="111"/>
-      <c r="F48" s="111"/>
+      <c r="C48" s="108"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="108"/>
       <c r="G48" s="27"/>
       <c r="H48" s="20"/>
       <c r="I48" s="20" t="s">
@@ -2868,11 +2874,14 @@
     <row r="144" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:I12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="F3:L3"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F6:L6"/>
     <mergeCell ref="B48:F48"/>
     <mergeCell ref="C25:I25"/>
     <mergeCell ref="C26:I26"/>
@@ -2884,14 +2893,11 @@
     <mergeCell ref="C37:I37"/>
     <mergeCell ref="C38:I38"/>
     <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="F3:L3"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:I12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C21:I21"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations xWindow="656" yWindow="321" count="6">
@@ -2917,12 +2923,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <OMContract xmlns="7165ecc1-11a1-4a26-a452-208ffd706532">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </OMContract>
+    <ASBDrawing xmlns="7165ecc1-11a1-4a26-a452-208ffd706532">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </ASBDrawing>
+    <CommencementNotice xmlns="7165ecc1-11a1-4a26-a452-208ffd706532">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </CommencementNotice>
+    <Number_x0020_of_x0020_File xmlns="7165ecc1-11a1-4a26-a452-208ffd706532" xsi:nil="true"/>
+    <TaxCatchAll xmlns="0cb1ff7e-53ad-49fc-9570-466d311f3e4b" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7165ecc1-11a1-4a26-a452-208ffd706532">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3233,35 +3256,28 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <OMContract xmlns="7165ecc1-11a1-4a26-a452-208ffd706532">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </OMContract>
-    <ASBDrawing xmlns="7165ecc1-11a1-4a26-a452-208ffd706532">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </ASBDrawing>
-    <CommencementNotice xmlns="7165ecc1-11a1-4a26-a452-208ffd706532">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </CommencementNotice>
-    <Number_x0020_of_x0020_File xmlns="7165ecc1-11a1-4a26-a452-208ffd706532" xsi:nil="true"/>
-    <TaxCatchAll xmlns="0cb1ff7e-53ad-49fc-9570-466d311f3e4b" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7165ecc1-11a1-4a26-a452-208ffd706532">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8D065F1-FBC0-4882-9BF5-AD6D54250913}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F10DA029-22BF-484B-93F6-0FB5B573AF55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="0cb1ff7e-53ad-49fc-9570-466d311f3e4b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7165ecc1-11a1-4a26-a452-208ffd706532"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3287,19 +3303,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F10DA029-22BF-484B-93F6-0FB5B573AF55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8D065F1-FBC0-4882-9BF5-AD6D54250913}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="0cb1ff7e-53ad-49fc-9570-466d311f3e4b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7165ecc1-11a1-4a26-a452-208ffd706532"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>